--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D859CCE-83FC-437D-B62D-F43DB4A0181A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1628AB-1321-42C2-B07F-EDE798D19100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="19440" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="180" windowWidth="21924" windowHeight="12012" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="159">
   <si>
     <t>Monitor Criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,30 +43,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DataSubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ImagePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ImageUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChartInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RawDataStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RawDataEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +96,556 @@
   </si>
   <si>
     <t>FAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inline/Offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmLotList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needKLAScan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tightSpecHigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tightSpecLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcopMeasDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ucl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wRuleCheckStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cRuleCheckSattus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching_status:Pass/Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As-is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvokeFuncName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor_Grp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor_Catg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriteriaList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChartTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType: M/P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcOpNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeasOpNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAB: "15B"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FABName: "FAB15B"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MesType: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FabCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuncPhaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserHost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDS/iDDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSaoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image file SAO id, (21 days)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interactive function url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawDataStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawDataEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data package start date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data package end date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-key of chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawDataSaoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartTypeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${chartId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countTypeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FAC) facTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPC) groupName</t>
+  </si>
+  <si>
+    <t>(SPC) chartName</t>
+  </si>
+  <si>
+    <t>(SPC) chartType</t>
+  </si>
+  <si>
+    <t>(SPC) chartTypeNo</t>
+  </si>
+  <si>
+    <t>(SPC) dataType</t>
+  </si>
+  <si>
+    <t>(SPC) itemName</t>
+  </si>
+  <si>
+    <t>(SPC) pointCount</t>
+  </si>
+  <si>
+    <t>(iDS) chartId</t>
+  </si>
+  <si>
+    <t>(iDS) countType</t>
+  </si>
+  <si>
+    <t>(iDS) countTypeNo</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matUsedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matChangeTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeasDataType:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor Result</t>
+  </si>
+  <si>
+    <t>matchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpi matching result, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Spec/Warning/Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${matchResult}='Error'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result Path</t>
+  </si>
+  <si>
+    <t>Monitor Criteria</t>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper baseline limit
+(by user defined in PreQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower baseline limit
+(by user defined in PreQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number, if no define, default is n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ruleChkRslt-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPC) wRuleCheckStatus</t>
+  </si>
+  <si>
+    <t>(SPC) cRuleCheckSattus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special rule check result, defined by diff. data subject </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(iDS) checkResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(iDS) ruleCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result Raw</t>
+  </si>
+  <si>
+    <t>Main Criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Crieria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meas Data Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">countType (countTypeNo) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName||chartName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chartType (chartTypeNo) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataType||itemName||pointCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +668,47 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,16 +716,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -443,125 +1117,1982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I13"/>
+  <dimension ref="B2:AQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="2" customWidth="1"/>
-    <col min="8" max="10" width="23.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" style="1"/>
+    <col min="40" max="40" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="15"/>
+    </row>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="15"/>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="6"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="6"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AN6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AN7" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ7" s="2"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="9"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL18" s="2"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="2" t="s">
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL20" s="2"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="2"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL23" s="2"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" s="2"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI28" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+    </row>
+    <row r="29" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI29" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="AD30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL40" s="2"/>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL41" s="2"/>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1628AB-1321-42C2-B07F-EDE798D19100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02C4A0-80FC-4DE4-9550-4C6E43862B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="684" yWindow="180" windowWidth="21924" windowHeight="12012" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="163">
   <si>
     <t>Monitor Criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,22 @@
   </si>
   <si>
     <t>dataType||itemName||pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if blank =&gt; Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mUT + 4 hr </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,27 +796,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -810,20 +805,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -836,6 +819,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,10 +1135,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AO5" sqref="AO5"/>
+      <selection pane="bottomLeft" activeCell="AH30" sqref="AH30:AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1149,7 @@
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
@@ -1174,222 +1190,222 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="K2" s="2"/>
       <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="18"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-      <c r="AD2" s="20"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14"/>
+      <c r="AD2" s="9"/>
       <c r="AE2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AF2" s="18"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="15"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="14"/>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="K3" s="2"/>
       <c r="L3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="15"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="12" t="s">
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="14"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AH3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="15"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="14"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="12" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="5" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="12" t="s">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="17" t="s">
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AF4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="12" t="s">
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AK4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AN4" s="21" t="s">
+      <c r="AN4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1402,9 +1418,11 @@
         <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1435,15 +1453,15 @@
       <c r="X5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="6"/>
-      <c r="AD5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="21"/>
+      <c r="AD5" s="9"/>
       <c r="AE5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1484,7 @@
       <c r="AL5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AN5" s="21" t="s">
+      <c r="AN5" s="10" t="s">
         <v>151</v>
       </c>
       <c r="AO5" s="2" t="s">
@@ -1486,10 +1504,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1520,12 +1538,12 @@
       <c r="Y6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="6"/>
-      <c r="AD6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="21"/>
+      <c r="AD6" s="9"/>
       <c r="AE6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1558,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AN6" s="21" t="s">
+      <c r="AN6" s="10" t="s">
         <v>152</v>
       </c>
       <c r="AO6" s="2"/>
@@ -1558,11 +1576,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1591,7 +1607,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AD7" s="20"/>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1622,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AN7" s="21" t="s">
+      <c r="AN7" s="10" t="s">
         <v>153</v>
       </c>
       <c r="AO7" s="2"/>
@@ -1622,9 +1638,11 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1649,7 +1667,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AD8" s="20"/>
+      <c r="AD8" s="9"/>
       <c r="AE8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1670,10 +1688,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1699,7 +1717,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AD9" s="20"/>
+      <c r="AD9" s="9"/>
       <c r="AE9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1720,12 +1738,12 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="2"/>
@@ -1749,7 +1767,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AD10" s="20"/>
+      <c r="AD10" s="9"/>
       <c r="AE10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1769,9 +1787,15 @@
         <v>62</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
@@ -1795,7 +1819,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AD11" s="20"/>
+      <c r="AD11" s="9"/>
       <c r="AE11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1815,12 +1839,8 @@
         <v>63</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1845,7 +1865,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AD12" s="20"/>
+      <c r="AD12" s="9"/>
       <c r="AE12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1864,18 +1884,18 @@
       <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
         <v>13</v>
@@ -1897,7 +1917,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AD13" s="20"/>
+      <c r="AD13" s="9"/>
       <c r="AE13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1916,16 +1936,18 @@
       <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
         <v>18</v>
@@ -1949,7 +1971,7 @@
       <c r="V14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD14" s="20"/>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1972,13 +1994,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
@@ -1988,20 +2010,20 @@
         <v>19</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD15" s="20"/>
+      <c r="AD15" s="9"/>
       <c r="AE15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2028,12 +2050,12 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
@@ -2055,15 +2077,15 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="10" t="s">
+      <c r="AH16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI16" s="7" t="s">
+      <c r="AI16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="9"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="17"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -2072,12 +2094,12 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
@@ -2116,12 +2138,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2"/>
       <c r="K18" s="2" t="s">
@@ -2176,12 +2198,12 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" s="2" t="s">
@@ -2234,12 +2256,12 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="2"/>
       <c r="K20" s="2"/>
@@ -2288,12 +2310,12 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2342,14 +2364,14 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
         <v>24</v>
@@ -2361,7 +2383,7 @@
       <c r="O22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="11"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
         <v>31</v>
@@ -2396,13 +2418,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2434,7 +2456,7 @@
       <c r="AH23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI23" s="11"/>
+      <c r="AI23" s="4"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2" t="s">
         <v>31</v>
@@ -2448,13 +2470,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2499,11 +2521,15 @@
         <v>82</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2597,12 +2623,12 @@
       <c r="O27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="6"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
@@ -2637,12 +2663,12 @@
       <c r="O28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="6"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
@@ -2652,14 +2678,14 @@
       <c r="AH28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AI28" s="20" t="s">
+      <c r="AI28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AJ28" s="3" t="s">
+      <c r="AJ28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
     </row>
     <row r="29" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -2690,14 +2716,14 @@
       <c r="AH29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AI29" s="20" t="s">
+      <c r="AI29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AJ29" s="3" t="s">
+      <c r="AJ29" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -2975,12 +3001,12 @@
       <c r="AH39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AI39" s="3" t="s">
+      <c r="AI39" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
@@ -3006,6 +3032,12 @@
       <c r="AL40" s="2"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
@@ -3071,11 +3103,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="AJ28:AL28"/>
@@ -3084,14 +3116,14 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02C4A0-80FC-4DE4-9550-4C6E43862B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F202E0-05D3-4100-9374-CDE224B07841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="684" yWindow="180" windowWidth="21924" windowHeight="12012" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
   <si>
     <t>Monitor Criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +663,18 @@
   </si>
   <si>
     <t xml:space="preserve">mUT + 4 hr </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Map&lt;String, String&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1148,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AH30" sqref="AH30:AH39"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3129,4 +3142,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60EE729-540E-4DA5-86AA-B4DAC5CCD9FF}">
+  <dimension ref="E4:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F202E0-05D3-4100-9374-CDE224B07841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB16CDE-977F-4CE6-9DAD-73C5658D19C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="684" yWindow="180" windowWidth="21924" windowHeight="12012" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB16CDE-977F-4CE6-9DAD-73C5658D19C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56DADB-CF4E-40E8-BDB7-A0E7A6F8C2B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="180" windowWidth="21924" windowHeight="12012" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="21864" windowHeight="11316" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,9 +833,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -864,6 +861,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1148,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,51 +1208,51 @@
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
       <c r="U2" s="2"/>
       <c r="V2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="5"/>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="14"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="13"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="18"/>
+      <c r="AF2" s="17"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="14"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -1268,16 +1268,16 @@
       <c r="F3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="18"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1287,11 +1287,11 @@
       <c r="P3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
       <c r="U3" s="2"/>
       <c r="V3" s="8" t="s">
         <v>54</v>
@@ -1305,11 +1305,11 @@
       <c r="Y3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="14"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
@@ -1322,11 +1322,11 @@
       <c r="AI3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="14"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="13"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -1469,11 +1469,11 @@
       <c r="Y5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="20"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="2" t="s">
         <v>6</v>
@@ -1551,11 +1551,11 @@
       <c r="Y6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="21"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="20"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="2" t="s">
         <v>25</v>
@@ -1955,12 +1955,12 @@
       <c r="E14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
         <v>18</v>
@@ -2026,12 +2026,12 @@
       <c r="O15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="16"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
         <v>19</v>
@@ -2093,12 +2093,12 @@
       <c r="AH16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI16" s="15" t="s">
+      <c r="AI16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="17"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -2639,9 +2639,9 @@
       <c r="P27" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
@@ -2679,9 +2679,9 @@
       <c r="P28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
@@ -2694,11 +2694,11 @@
       <c r="AI28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AJ28" s="11" t="s">
+      <c r="AJ28" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
     </row>
     <row r="29" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -2732,11 +2732,11 @@
       <c r="AI29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AJ29" s="11" t="s">
+      <c r="AJ29" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -3014,12 +3014,12 @@
       <c r="AH39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AI39" s="11" t="s">
+      <c r="AI39" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
@@ -3116,11 +3116,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="AJ28:AL28"/>
@@ -3132,11 +3132,11 @@
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prequal Monitor Result - 21'03.xlsx
+++ b/Prequal Monitor Result - 21'03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56DADB-CF4E-40E8-BDB7-A0E7A6F8C2B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED77270D-19BE-47E6-A624-DDF03E5D0143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="21864" windowHeight="11316" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22488" windowHeight="11808" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="170">
   <si>
     <t>Monitor Criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,22 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgStatusMemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gen-imageerror message, eq: {e.getError()}, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,6 +849,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -861,9 +880,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1164,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AN31" sqref="AN31"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,51 +1224,51 @@
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
       <c r="U2" s="2"/>
       <c r="V2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="5"/>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="17"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="14"/>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -1268,16 +1284,16 @@
       <c r="F3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1287,11 +1303,11 @@
       <c r="P3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
       <c r="U3" s="2"/>
       <c r="V3" s="8" t="s">
         <v>54</v>
@@ -1305,11 +1321,11 @@
       <c r="Y3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="14"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
@@ -1322,11 +1338,11 @@
       <c r="AI3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="14"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -1469,11 +1485,11 @@
       <c r="Y5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="21"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="2" t="s">
         <v>6</v>
@@ -1551,11 +1567,11 @@
       <c r="Y6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="21"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="2" t="s">
         <v>25</v>
@@ -1589,9 +1605,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1651,11 +1669,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1701,10 +1717,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1751,12 +1767,12 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="2"/>
@@ -1801,13 +1817,11 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1852,9 +1866,15 @@
         <v>63</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="2"/>
@@ -1897,15 +1917,9 @@
       <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1952,15 +1966,15 @@
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
         <v>18</v>
@@ -2005,16 +2019,18 @@
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
         <v>19</v>
@@ -2026,12 +2042,12 @@
       <c r="O15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
         <v>19</v>
@@ -2063,13 +2079,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2093,12 +2109,12 @@
       <c r="AH16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI16" s="14" t="s">
+      <c r="AI16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="17"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -2107,12 +2123,12 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
@@ -2151,12 +2167,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2"/>
       <c r="K18" s="2" t="s">
@@ -2211,12 +2227,12 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" s="2" t="s">
@@ -2269,12 +2285,12 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2"/>
       <c r="K20" s="2"/>
@@ -2323,12 +2339,12 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2377,12 +2393,12 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="2"/>
@@ -2431,14 +2447,14 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
@@ -2483,13 +2499,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2535,13 +2551,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2582,11 +2598,15 @@
         <v>83</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2624,7 +2644,9 @@
         <v>84</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2639,9 +2661,9 @@
       <c r="P27" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="20"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
@@ -2664,7 +2686,9 @@
         <v>85</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2679,9 +2703,9 @@
       <c r="P28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="20"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
@@ -2694,11 +2718,11 @@
       <c r="AI28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AJ28" s="21" t="s">
+      <c r="AJ28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
     </row>
     <row r="29" spans="2:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -2706,7 +2730,9 @@
         <v>86</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2732,17 +2758,19 @@
       <c r="AI29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AJ29" s="21" t="s">
+      <c r="AJ29" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2782,7 +2810,9 @@
         <v>5</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2816,7 +2846,9 @@
         <v>71</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2850,7 +2882,9 @@
         <v>4</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3014,12 +3048,12 @@
       <c r="AH39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AI39" s="21" t="s">
+      <c r="AI39" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
@@ -3066,6 +3100,12 @@
       <c r="AL41" s="2"/>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -3116,11 +3156,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="AJ28:AL28"/>
@@ -3132,11 +3172,11 @@
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
